--- a/uploads/Template.xlsx
+++ b/uploads/Template.xlsx
@@ -11416,7 +11416,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12009,7 +12009,7 @@
       </c>
       <c r="AE3" s="22">
         <f ca="1">IF(AA3&gt;TODAY(),AA3-TODAY(),0)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AF3" s="20">
         <v>42679</v>
@@ -12115,7 +12115,7 @@
       </c>
       <c r="AE4" s="22">
         <f t="shared" ref="AE4:AE67" ca="1" si="5">IF(AA4&gt;TODAY(),AA4-TODAY(),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF4" s="20">
         <v>42681</v>
@@ -12220,7 +12220,7 @@
       </c>
       <c r="AE5" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AF5" s="14"/>
       <c r="AG5" s="14"/>
@@ -12488,7 +12488,7 @@
       </c>
       <c r="U8" s="22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">54 days pending to confirm </v>
+        <v xml:space="preserve">43 days pending to confirm </v>
       </c>
       <c r="V8" s="20"/>
       <c r="W8" s="14"/>
